--- a/data/T_AHP-FT_baru2.xlsx
+++ b/data/T_AHP-FT_baru2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Proses AHP" sheetId="1" r:id="rId1"/>
@@ -758,12 +758,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -928,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -998,6 +1004,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:Y54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1410,7 +1418,7 @@
       <c r="O4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="31">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
@@ -1437,10 +1445,10 @@
       <c r="O5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="31">
         <v>5</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="31">
         <v>1</v>
       </c>
       <c r="R5" s="2">
@@ -1460,14 +1468,14 @@
       <c r="O6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="31">
         <v>1</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="31">
         <f>1/R5</f>
         <v>0.25</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="31">
         <v>1</v>
       </c>
       <c r="S6" s="2">
@@ -1483,20 +1491,20 @@
       <c r="O7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="31">
         <v>2</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="31">
         <f>1/S5</f>
         <v>0.5</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="31">
         <v>2</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="31">
         <v>1</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="32">
         <f>1/S8</f>
         <v>1</v>
       </c>
@@ -1508,20 +1516,20 @@
       <c r="O8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="31">
         <v>2</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="31">
         <f>1/T5</f>
         <v>0.5</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="31">
         <v>2</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="31">
         <v>1</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="31">
         <v>1</v>
       </c>
     </row>
@@ -27510,7 +27518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
